--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tff3-Cxcr4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tff3-Cxcr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tff3</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.533457116102288</v>
+        <v>0.4482143333333333</v>
       </c>
       <c r="H2">
-        <v>0.533457116102288</v>
+        <v>1.344643</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.3182853663951962</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3182853663951962</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.986405348307</v>
+        <v>23.66111866666667</v>
       </c>
       <c r="N2">
-        <v>22.986405348307</v>
+        <v>70.983356</v>
       </c>
       <c r="O2">
-        <v>0.09682269173287546</v>
+        <v>0.08861204511346259</v>
       </c>
       <c r="P2">
-        <v>0.09682269173287546</v>
+        <v>0.08861204511346259</v>
       </c>
       <c r="Q2">
-        <v>12.26226150666606</v>
+        <v>10.60525252910089</v>
       </c>
       <c r="R2">
-        <v>12.26226150666606</v>
+        <v>95.447272761908</v>
       </c>
       <c r="S2">
-        <v>0.09682269173287546</v>
+        <v>0.02820391724596609</v>
       </c>
       <c r="T2">
-        <v>0.09682269173287546</v>
+        <v>0.0282039172459661</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.533457116102288</v>
+        <v>0.4482143333333333</v>
       </c>
       <c r="H3">
-        <v>0.533457116102288</v>
+        <v>1.344643</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.3182853663951962</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.3182853663951962</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>203.809550316743</v>
+        <v>0.1622346666666667</v>
       </c>
       <c r="N3">
-        <v>203.809550316743</v>
+        <v>0.486704</v>
       </c>
       <c r="O3">
-        <v>0.8584808700411867</v>
+        <v>0.0006075767508780888</v>
       </c>
       <c r="P3">
-        <v>0.8584808700411867</v>
+        <v>0.0006075767508780888</v>
       </c>
       <c r="Q3">
-        <v>108.7236549460739</v>
+        <v>0.07271590296355555</v>
       </c>
       <c r="R3">
-        <v>108.7236549460739</v>
+        <v>0.654443126672</v>
       </c>
       <c r="S3">
-        <v>0.8584808700411867</v>
+        <v>0.0001933827887664353</v>
       </c>
       <c r="T3">
-        <v>0.8584808700411867</v>
+        <v>0.0001933827887664354</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,619 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.4482143333333333</v>
+      </c>
+      <c r="H4">
+        <v>1.344643</v>
+      </c>
+      <c r="I4">
+        <v>0.3182853663951962</v>
+      </c>
+      <c r="J4">
+        <v>0.3182853663951962</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>231.2048796666667</v>
+      </c>
+      <c r="N4">
+        <v>693.614639</v>
+      </c>
+      <c r="O4">
+        <v>0.8658735673532548</v>
+      </c>
+      <c r="P4">
+        <v>0.8658735673532548</v>
+      </c>
+      <c r="Q4">
+        <v>103.6293410032086</v>
+      </c>
+      <c r="R4">
+        <v>932.6640690288771</v>
+      </c>
+      <c r="S4">
+        <v>0.2755948856369463</v>
+      </c>
+      <c r="T4">
+        <v>0.2755948856369463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.4482143333333333</v>
+      </c>
+      <c r="H5">
+        <v>1.344643</v>
+      </c>
+      <c r="I5">
+        <v>0.3182853663951962</v>
+      </c>
+      <c r="J5">
+        <v>0.3182853663951962</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>11.99098133333333</v>
+      </c>
+      <c r="N5">
+        <v>35.972944</v>
+      </c>
+      <c r="O5">
+        <v>0.04490681078240458</v>
+      </c>
+      <c r="P5">
+        <v>0.04490681078240458</v>
+      </c>
+      <c r="Q5">
+        <v>5.374529704332444</v>
+      </c>
+      <c r="R5">
+        <v>48.370767338992</v>
+      </c>
+      <c r="S5">
+        <v>0.01429318072351739</v>
+      </c>
+      <c r="T5">
+        <v>0.01429318072351739</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.533457116102288</v>
-      </c>
-      <c r="H4">
-        <v>0.533457116102288</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>10.6112568066327</v>
-      </c>
-      <c r="N4">
-        <v>10.6112568066327</v>
-      </c>
-      <c r="O4">
-        <v>0.04469643822593798</v>
-      </c>
-      <c r="P4">
-        <v>0.04469643822593798</v>
-      </c>
-      <c r="Q4">
-        <v>5.660650454287054</v>
-      </c>
-      <c r="R4">
-        <v>5.660650454287054</v>
-      </c>
-      <c r="S4">
-        <v>0.04469643822593798</v>
-      </c>
-      <c r="T4">
-        <v>0.04469643822593798</v>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.7432663333333333</v>
+      </c>
+      <c r="H6">
+        <v>2.229799</v>
+      </c>
+      <c r="I6">
+        <v>0.527807300303978</v>
+      </c>
+      <c r="J6">
+        <v>0.5278073003039782</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>23.66111866666667</v>
+      </c>
+      <c r="N6">
+        <v>70.983356</v>
+      </c>
+      <c r="O6">
+        <v>0.08861204511346259</v>
+      </c>
+      <c r="P6">
+        <v>0.08861204511346259</v>
+      </c>
+      <c r="Q6">
+        <v>17.58651291393822</v>
+      </c>
+      <c r="R6">
+        <v>158.278616225444</v>
+      </c>
+      <c r="S6">
+        <v>0.046770084305751</v>
+      </c>
+      <c r="T6">
+        <v>0.046770084305751</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.7432663333333333</v>
+      </c>
+      <c r="H7">
+        <v>2.229799</v>
+      </c>
+      <c r="I7">
+        <v>0.527807300303978</v>
+      </c>
+      <c r="J7">
+        <v>0.5278073003039782</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.1622346666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.486704</v>
+      </c>
+      <c r="O7">
+        <v>0.0006075767508780888</v>
+      </c>
+      <c r="P7">
+        <v>0.0006075767508780888</v>
+      </c>
+      <c r="Q7">
+        <v>0.1205835658328889</v>
+      </c>
+      <c r="R7">
+        <v>1.085252092496</v>
+      </c>
+      <c r="S7">
+        <v>0.0003206834446084267</v>
+      </c>
+      <c r="T7">
+        <v>0.0003206834446084268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.7432663333333333</v>
+      </c>
+      <c r="H8">
+        <v>2.229799</v>
+      </c>
+      <c r="I8">
+        <v>0.527807300303978</v>
+      </c>
+      <c r="J8">
+        <v>0.5278073003039782</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>231.2048796666667</v>
+      </c>
+      <c r="N8">
+        <v>693.614639</v>
+      </c>
+      <c r="O8">
+        <v>0.8658735673532548</v>
+      </c>
+      <c r="P8">
+        <v>0.8658735673532548</v>
+      </c>
+      <c r="Q8">
+        <v>171.8468031586179</v>
+      </c>
+      <c r="R8">
+        <v>1546.621228427561</v>
+      </c>
+      <c r="S8">
+        <v>0.4570143899892961</v>
+      </c>
+      <c r="T8">
+        <v>0.4570143899892962</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.7432663333333333</v>
+      </c>
+      <c r="H9">
+        <v>2.229799</v>
+      </c>
+      <c r="I9">
+        <v>0.527807300303978</v>
+      </c>
+      <c r="J9">
+        <v>0.5278073003039782</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>11.99098133333333</v>
+      </c>
+      <c r="N9">
+        <v>35.972944</v>
+      </c>
+      <c r="O9">
+        <v>0.04490681078240458</v>
+      </c>
+      <c r="P9">
+        <v>0.04490681078240458</v>
+      </c>
+      <c r="Q9">
+        <v>8.91249272869511</v>
+      </c>
+      <c r="R9">
+        <v>80.21243455825599</v>
+      </c>
+      <c r="S9">
+        <v>0.02370214256432254</v>
+      </c>
+      <c r="T9">
+        <v>0.02370214256432254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.2167346666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.650204</v>
+      </c>
+      <c r="I10">
+        <v>0.1539073333008257</v>
+      </c>
+      <c r="J10">
+        <v>0.1539073333008257</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>23.66111866666667</v>
+      </c>
+      <c r="N10">
+        <v>70.983356</v>
+      </c>
+      <c r="O10">
+        <v>0.08861204511346259</v>
+      </c>
+      <c r="P10">
+        <v>0.08861204511346259</v>
+      </c>
+      <c r="Q10">
+        <v>5.128184667180444</v>
+      </c>
+      <c r="R10">
+        <v>46.153662004624</v>
+      </c>
+      <c r="S10">
+        <v>0.01363804356174549</v>
+      </c>
+      <c r="T10">
+        <v>0.01363804356174549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.2167346666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.650204</v>
+      </c>
+      <c r="I11">
+        <v>0.1539073333008257</v>
+      </c>
+      <c r="J11">
+        <v>0.1539073333008257</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.1622346666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.486704</v>
+      </c>
+      <c r="O11">
+        <v>0.0006075767508780888</v>
+      </c>
+      <c r="P11">
+        <v>0.0006075767508780888</v>
+      </c>
+      <c r="Q11">
+        <v>0.03516187640177778</v>
+      </c>
+      <c r="R11">
+        <v>0.316456887616</v>
+      </c>
+      <c r="S11">
+        <v>9.351051750322674E-05</v>
+      </c>
+      <c r="T11">
+        <v>9.351051750322674E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.2167346666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.650204</v>
+      </c>
+      <c r="I12">
+        <v>0.1539073333008257</v>
+      </c>
+      <c r="J12">
+        <v>0.1539073333008257</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>231.2048796666667</v>
+      </c>
+      <c r="N12">
+        <v>693.614639</v>
+      </c>
+      <c r="O12">
+        <v>0.8658735673532548</v>
+      </c>
+      <c r="P12">
+        <v>0.8658735673532548</v>
+      </c>
+      <c r="Q12">
+        <v>50.11011252626178</v>
+      </c>
+      <c r="R12">
+        <v>450.991012736356</v>
+      </c>
+      <c r="S12">
+        <v>0.1332642917270123</v>
+      </c>
+      <c r="T12">
+        <v>0.1332642917270123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.2167346666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.650204</v>
+      </c>
+      <c r="I13">
+        <v>0.1539073333008257</v>
+      </c>
+      <c r="J13">
+        <v>0.1539073333008257</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>11.99098133333333</v>
+      </c>
+      <c r="N13">
+        <v>35.972944</v>
+      </c>
+      <c r="O13">
+        <v>0.04490681078240458</v>
+      </c>
+      <c r="P13">
+        <v>0.04490681078240458</v>
+      </c>
+      <c r="Q13">
+        <v>2.598861342286222</v>
+      </c>
+      <c r="R13">
+        <v>23.389752080576</v>
+      </c>
+      <c r="S13">
+        <v>0.006911487494564655</v>
+      </c>
+      <c r="T13">
+        <v>0.006911487494564653</v>
       </c>
     </row>
   </sheetData>
